--- a/vsphere测试相关信息.xlsx
+++ b/vsphere测试相关信息.xlsx
@@ -5,26 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Design\vSphere\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Design\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7380" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7380"/>
   </bookViews>
   <sheets>
-    <sheet name="测试环境信息" sheetId="1" r:id="rId1"/>
-    <sheet name="iSCSI Target" sheetId="13" r:id="rId2"/>
-    <sheet name="vSphere" sheetId="3" r:id="rId3"/>
-    <sheet name="ESXi" sheetId="4" r:id="rId4"/>
-    <sheet name="vCenter Server" sheetId="2" r:id="rId5"/>
-    <sheet name="vMotion" sheetId="10" r:id="rId6"/>
-    <sheet name="网络" sheetId="11" r:id="rId7"/>
-    <sheet name="HA" sheetId="12" r:id="rId8"/>
-    <sheet name="vShere 性能监控" sheetId="5" r:id="rId9"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId10"/>
-    <sheet name="三美环境事项" sheetId="7" r:id="rId11"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId12"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId13"/>
+    <sheet name="vShere 性能监控 (2)" sheetId="14" r:id="rId1"/>
+    <sheet name="测试环境信息" sheetId="1" r:id="rId2"/>
+    <sheet name="iSCSI Target" sheetId="13" r:id="rId3"/>
+    <sheet name="vSphere" sheetId="3" r:id="rId4"/>
+    <sheet name="ESXi" sheetId="4" r:id="rId5"/>
+    <sheet name="vCenter Server" sheetId="2" r:id="rId6"/>
+    <sheet name="vMotion" sheetId="10" r:id="rId7"/>
+    <sheet name="网络" sheetId="11" r:id="rId8"/>
+    <sheet name="HA" sheetId="12" r:id="rId9"/>
+    <sheet name="vShere 性能监控" sheetId="5" r:id="rId10"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId11"/>
+    <sheet name="三美环境事项" sheetId="7" r:id="rId12"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId13"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -3382,6 +3383,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" s="10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" s="10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" s="10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" s="10"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" s="10" t="s">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A72:A76"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A73" r:id="rId1"/>
+    <hyperlink ref="A72" r:id="rId2"/>
+    <hyperlink ref="A74" r:id="rId3"/>
+    <hyperlink ref="A75" r:id="rId4"/>
+    <hyperlink ref="A76" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -3836,237 +4092,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" s="10" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" s="10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" s="10"/>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" s="10" t="s">
-        <v>271</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A72:A76"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A73" r:id="rId1"/>
-    <hyperlink ref="A72" r:id="rId2"/>
-    <hyperlink ref="A74" r:id="rId3"/>
-    <hyperlink ref="A75" r:id="rId4"/>
-    <hyperlink ref="A76" r:id="rId5"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A363"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A326" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+    <sheetView showGridLines="0" topLeftCell="A677" workbookViewId="0">
+      <selection activeCell="G689" sqref="G689"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5137,7 +5168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -5288,7 +5319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
@@ -5817,7 +5848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A66"/>
   <sheetViews>
@@ -6009,7 +6040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A999"/>
   <sheetViews>
@@ -9070,7 +9101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A130"/>
   <sheetViews>
@@ -9549,7 +9580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A130"/>
   <sheetViews>
@@ -9956,19 +9987,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>